--- a/Copy of Team Project Tracking Sheets.xlsx
+++ b/Copy of Team Project Tracking Sheets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ty9253er\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yb5243yv\Dropbox\Workspace - Java - 2017-2018\Card Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t>Copyright - Sudharsan Iyengar - August 2017.</t>
   </si>
@@ -139,6 +139,48 @@
   </si>
   <si>
     <t>4 hr</t>
+  </si>
+  <si>
+    <t>Jared DuPont</t>
+  </si>
+  <si>
+    <t>6hr</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Client GUI</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Server GUI</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>5hr</t>
+  </si>
+  <si>
+    <t>Communicate and get updates from server</t>
+  </si>
+  <si>
+    <t>Display info and get player choices</t>
+  </si>
+  <si>
+    <t>Handle game logic and client communication</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Display server info, very basic</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1114,7 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,8 +1220,12 @@
       <c r="J8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="L8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
@@ -1206,7 +1252,9 @@
       <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -1228,10 +1276,18 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
@@ -1254,8 +1310,12 @@
       <c r="G14" s="8"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="L14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
@@ -1290,13 +1350,13 @@
   <dimension ref="B3:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,24 +1377,46 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
@@ -1417,7 +1499,7 @@
   <dimension ref="C2:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1914,7 @@
   <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Copy of Team Project Tracking Sheets.xlsx
+++ b/Copy of Team Project Tracking Sheets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>Copyright - Sudharsan Iyengar - August 2017.</t>
   </si>
@@ -1113,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1360,7 @@
     <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
@@ -1414,9 +1414,7 @@
       <c r="C10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>

--- a/Copy of Team Project Tracking Sheets.xlsx
+++ b/Copy of Team Project Tracking Sheets.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yb5243yv\Dropbox\Workspace - Java - 2017-2018\Card Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vv3383my\Documents\GitHub\Card-Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Copyright - Sudharsan Iyengar - August 2017.</t>
   </si>
@@ -181,12 +181,15 @@
   </si>
   <si>
     <t>Display server info, very basic</t>
+  </si>
+  <si>
+    <t>1 hr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1110,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1245,9 @@
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1346,10 +1351,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1493,7 +1498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C2:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1698,7 +1703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1908,7 +1913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2118,7 +2123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2330,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/Copy of Team Project Tracking Sheets.xlsx
+++ b/Copy of Team Project Tracking Sheets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vv3383my\Documents\GitHub\Card-Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\20183001306\Shared\Matt Jared Dylan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Copyright - Sudharsan Iyengar - August 2017.</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Matt Johnson</t>
   </si>
   <si>
-    <t>2 hr</t>
-  </si>
-  <si>
     <t>Dylan Hericks</t>
   </si>
   <si>
@@ -183,14 +180,59 @@
     <t>Display server info, very basic</t>
   </si>
   <si>
-    <t>1 hr</t>
+    <t>Game Logic</t>
+  </si>
+  <si>
+    <t>Determine winner, shuffle, deal</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Object classes</t>
+  </si>
+  <si>
+    <t>Player, Card</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>1/2 hr</t>
+  </si>
+  <si>
+    <t>3 hr</t>
+  </si>
+  <si>
+    <t>6 hr</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>Sketches</t>
+  </si>
+  <si>
+    <t>understanding what is need, plan of attack</t>
+  </si>
+  <si>
+    <t>The code itself</t>
+  </si>
+  <si>
+    <t>Debugging, fixes, etc</t>
+  </si>
+  <si>
+    <t>Fixing errors, simple fixes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -353,6 +395,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +807,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -778,19 +834,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1181,7 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,14 +1198,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -1207,27 +1271,33 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
       <c r="I8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -1246,21 +1316,29 @@
         <v>16</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
       <c r="I10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="L10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
@@ -1277,21 +1355,29 @@
       <c r="C12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1</v>
+      </c>
       <c r="I12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="L12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -1309,17 +1395,25 @@
       <c r="C14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="L14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -1337,10 +1431,18 @@
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="20">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1352,144 +1454,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:D24"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="2" max="2" width="18.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="47" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,13 +1625,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="4" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
@@ -1718,13 +1828,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
@@ -1928,13 +2038,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -2140,13 +2250,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -2350,13 +2460,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
